--- a/docs/_downloads/e22106d2ac055553c0524e51cdbfd2b6/Probit.xlsx
+++ b/docs/_downloads/e22106d2ac055553c0524e51cdbfd2b6/Probit.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\OpenSRANE_Documentation\source\user\Verifications\FragilitiesVF\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0471FDE-2A3D-4AFD-928C-46CC00235772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62067248-5E7A-47F5-A6B7-7476985675AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Normal Fragility" sheetId="1" r:id="rId1"/>
-    <sheet name="LogNormal Fragility" sheetId="2" r:id="rId2"/>
+    <sheet name="Normal Probit" sheetId="1" r:id="rId1"/>
+    <sheet name="LogNormal Probit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,7 +168,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Normal Fragility'!$C$1</c:f>
+              <c:f>'Normal Probit'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -191,7 +191,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Normal Fragility'!$B$2:$B$103</c:f>
+              <c:f>'Normal Probit'!$B$2:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="102"/>
@@ -272,7 +272,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Normal Fragility'!$C$2:$C$103</c:f>
+              <c:f>'Normal Probit'!$C$2:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="102"/>
@@ -379,7 +379,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Normal Fragility'!$B$1</c:f>
+              <c:f>'Normal Probit'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -468,7 +468,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'Normal Fragility'!$C$1</c:f>
+              <c:f>'Normal Probit'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,7 +621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LogNormal Fragility'!$C$1</c:f>
+              <c:f>'LogNormal Probit'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,7 +644,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'LogNormal Fragility'!$B$2:$B$103</c:f>
+              <c:f>'LogNormal Probit'!$B$2:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="102"/>
@@ -806,7 +806,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LogNormal Fragility'!$C$2:$C$103</c:f>
+              <c:f>'LogNormal Probit'!$C$2:$C$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="102"/>
@@ -994,7 +994,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'LogNormal Fragility'!$B$1</c:f>
+              <c:f>'LogNormal Probit'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1083,7 +1083,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>'LogNormal Fragility'!$C$1</c:f>
+              <c:f>'LogNormal Probit'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2672,7 +2672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -3379,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76E4AB3-E7BA-4898-B6B8-F51DE11F0D38}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
